--- a/output/fit_clients/fit_round_205.xlsx
+++ b/output/fit_clients/fit_round_205.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2386809048.108336</v>
+        <v>2427001511.302107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1093468430084444</v>
+        <v>0.1047155063559124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0450514480671428</v>
+        <v>0.04507968292351839</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1193404571.723265</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2062524470.053263</v>
+        <v>2570501464.972333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1688989936646405</v>
+        <v>0.1186913273406409</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03122620947242176</v>
+        <v>0.04676216112026456</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1031262284.74837</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3394790385.819691</v>
+        <v>4061334294.62127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1216232139191293</v>
+        <v>0.1154302171676663</v>
       </c>
       <c r="G4" t="n">
-        <v>0.032296236580208</v>
+        <v>0.03174582861277332</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1697395164.198629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2943114220.21633</v>
+        <v>3571627577.119697</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1044343132937811</v>
+        <v>0.08479729274232178</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0415950616613761</v>
+        <v>0.04343713002422629</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>76</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1471557183.679496</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2022408016.313825</v>
+        <v>2675522729.705972</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09945474581318428</v>
+        <v>0.08998848611616765</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05272375404876473</v>
+        <v>0.05399173349924529</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1011204035.307275</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2246764055.680118</v>
+        <v>2914166430.09217</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08385466971098533</v>
+        <v>0.07913209006149967</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03618436990315964</v>
+        <v>0.03113033727577344</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1123382065.209306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2917076426.974397</v>
+        <v>3371408739.438229</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1783676476564316</v>
+        <v>0.2025648775816038</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02301226071330873</v>
+        <v>0.02342646658371015</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>65</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1458538262.508621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1705554868.536242</v>
+        <v>2175838210.500872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1697725314757584</v>
+        <v>0.1713658157655059</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03473190018686039</v>
+        <v>0.03007595087238219</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>852777501.7009668</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5536682695.71444</v>
+        <v>5006399530.354886</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1993084985574969</v>
+        <v>0.1348090904014033</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03629128335574858</v>
+        <v>0.03381034711514997</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>86</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2768341488.709589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3120442371.641978</v>
+        <v>3264781356.088476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1551873892691024</v>
+        <v>0.1606141312408872</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03427739825919479</v>
+        <v>0.04645247812896746</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>85</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1560221137.185743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2832463166.360105</v>
+        <v>2596570024.919414</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1796008593642986</v>
+        <v>0.1265694607973972</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04233506673626653</v>
+        <v>0.04885141323507178</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>73</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1416231585.848899</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4791776019.285616</v>
+        <v>4051387132.324633</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1005034143442113</v>
+        <v>0.1000853447002671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02814335826874579</v>
+        <v>0.03049896867196573</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>69</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2395888024.341134</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2638429846.948777</v>
+        <v>2899291108.823526</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1823430113444059</v>
+        <v>0.1814744361799255</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04127527404135097</v>
+        <v>0.03417223552554515</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1319214984.078323</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1722343114.084014</v>
+        <v>1273611247.461997</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0730101999458324</v>
+        <v>0.07781375449756331</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04791526568282062</v>
+        <v>0.04364469232731558</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>861171692.9327948</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2798729172.394719</v>
+        <v>1887142122.904894</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07424567106857273</v>
+        <v>0.0772066303768332</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03592223454076011</v>
+        <v>0.04800653355828672</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>31</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1399364590.299563</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3428437109.624658</v>
+        <v>4734114157.142219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1155839147047465</v>
+        <v>0.1537777579408464</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03308121999024419</v>
+        <v>0.04194330978632941</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>60</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1714218617.654234</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3212697831.154036</v>
+        <v>3987196165.312262</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1123949178045023</v>
+        <v>0.1367199901945291</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03065375637191095</v>
+        <v>0.03431320929992947</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>67</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1606348930.380172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>919964634.6682371</v>
+        <v>1062090459.68485</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1281321037861061</v>
+        <v>0.1769970344696448</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02512901622799547</v>
+        <v>0.0254906050249555</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>459982327.0630184</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2492479157.107104</v>
+        <v>1698649469.183955</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1613215292715531</v>
+        <v>0.1097441764862019</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02119356209957551</v>
+        <v>0.02732271994897946</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1246239552.434074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2637691196.176778</v>
+        <v>2691104964.925201</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06645251100670146</v>
+        <v>0.08767510565816007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03500504367505501</v>
+        <v>0.03807262834479872</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1318845573.037649</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3376801308.273664</v>
+        <v>4040664752.510712</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1094475986101348</v>
+        <v>0.09912686337665537</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03881977111628362</v>
+        <v>0.04364776908286577</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1688400693.082937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1212562309.307645</v>
+        <v>1179904072.745391</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1472733089766623</v>
+        <v>0.1707928240980371</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04873679235265811</v>
+        <v>0.04453495289154011</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>606281189.006513</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3860127854.269523</v>
+        <v>2586321937.306867</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1285940676625344</v>
+        <v>0.1242171589864633</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02935478416895576</v>
+        <v>0.0301475091459965</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>61</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1930063904.521758</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1166733393.626549</v>
+        <v>987865162.3243035</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1166929252195607</v>
+        <v>0.1049084823556379</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02237859884040065</v>
+        <v>0.02161072370114292</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>583366722.4212285</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>915526941.74208</v>
+        <v>1033914200.017551</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09426728288006697</v>
+        <v>0.1191808473230689</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03526284476626004</v>
+        <v>0.03014375879253843</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>457763422.3050643</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3160078914.987799</v>
+        <v>4647868563.885972</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1267994667890892</v>
+        <v>0.1313587996477611</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02100432496703518</v>
+        <v>0.01707165129646724</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1580039509.324475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3390115956.54052</v>
+        <v>2769616885.085783</v>
       </c>
       <c r="F28" t="n">
-        <v>0.124887422867314</v>
+        <v>0.1166688464821722</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0410304142832881</v>
+        <v>0.04294008073782576</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>66</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1695058023.342065</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4877335665.506739</v>
+        <v>4647520116.93818</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09152193880191598</v>
+        <v>0.1000896117254224</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02851043648222838</v>
+        <v>0.03108667101485957</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>92</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2438667788.840716</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2286508063.296751</v>
+        <v>1746713148.851234</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1311356318733475</v>
+        <v>0.1114252075905907</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03476551876302372</v>
+        <v>0.03694736269474285</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1143254101.747476</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1452203986.30095</v>
+        <v>1438810937.720474</v>
       </c>
       <c r="F31" t="n">
-        <v>0.069957219729295</v>
+        <v>0.08819338344184235</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04421636059266628</v>
+        <v>0.05269137528148578</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>726101885.2338896</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1527674364.962076</v>
+        <v>1753526649.888662</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1197118651173959</v>
+        <v>0.1154109397381885</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02434011809178315</v>
+        <v>0.02914353916914338</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>763837256.5599569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2381463203.384693</v>
+        <v>2295533941.379824</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1881469947738444</v>
+        <v>0.159632291990825</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05282091740022073</v>
+        <v>0.05044727077355485</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>61</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1190731649.964969</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>984647552.6791699</v>
+        <v>1485151227.464082</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07626322586806902</v>
+        <v>0.1102906406467285</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02443497913509414</v>
+        <v>0.02472219948660016</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>492323816.7415609</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>977346752.4217064</v>
+        <v>1268810238.308611</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1059189184798751</v>
+        <v>0.09200482938844885</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02838153405357574</v>
+        <v>0.02803497889617372</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>488673399.7496333</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3221614888.63865</v>
+        <v>2120075733.89534</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1291732456199797</v>
+        <v>0.1097144961728546</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0254409703553721</v>
+        <v>0.01933117883899952</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>52</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1610807408.475852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2938971410.159117</v>
+        <v>2639072475.301619</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1029465864623875</v>
+        <v>0.09292246944580361</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02641387221244234</v>
+        <v>0.03576473518919473</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>54</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1469485861.497112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1483162803.760723</v>
+        <v>1941611070.791994</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09043554620158216</v>
+        <v>0.1025247813759162</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02507973360097618</v>
+        <v>0.03160089073255396</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>741581453.4962525</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1394897710.512842</v>
+        <v>2068229311.660933</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1896061615596436</v>
+        <v>0.1463207711302809</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02152823430323577</v>
+        <v>0.02802727393308934</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>697448941.6242276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1144225920.544885</v>
+        <v>1782428420.360077</v>
       </c>
       <c r="F40" t="n">
-        <v>0.14295903241119</v>
+        <v>0.1140941545907318</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04803076477949808</v>
+        <v>0.05356675187407692</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>572113015.5140358</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2722434690.960313</v>
+        <v>2898542822.556662</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1093176328214883</v>
+        <v>0.1182025010228886</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0443891000453057</v>
+        <v>0.0372355042092476</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>51</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1361217348.946516</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3098955682.085383</v>
+        <v>3729840356.400609</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1092958268779174</v>
+        <v>0.1116240183233494</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04336415722458646</v>
+        <v>0.04053506004165074</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1549477808.270188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2098282857.484622</v>
+        <v>2782463763.157306</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1688927150918006</v>
+        <v>0.1685504409602069</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02155305375542844</v>
+        <v>0.02111048625644583</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>70</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1049141517.792824</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1572974767.409318</v>
+        <v>1543930530.765752</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0914719671360656</v>
+        <v>0.07142101614271669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03510419768238489</v>
+        <v>0.03444702129635024</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>786487404.8120435</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2340768456.734138</v>
+        <v>2540974273.579684</v>
       </c>
       <c r="F45" t="n">
-        <v>0.168532305031928</v>
+        <v>0.1692065625090284</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04199405773479057</v>
+        <v>0.0527530285005884</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1170384253.53777</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3787764601.2015</v>
+        <v>4494002143.279209</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1414530906316812</v>
+        <v>0.1660544449303078</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05130817640837872</v>
+        <v>0.03867525819287391</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>73</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1893882257.96432</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3176217875.553401</v>
+        <v>4731431993.775271</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1679345030829079</v>
+        <v>0.1356642617135234</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04822799150104155</v>
+        <v>0.05406302137240175</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>55</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1588108890.201199</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3420532040.530231</v>
+        <v>3943473036.928854</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1077178374193697</v>
+        <v>0.07707477542624612</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03750730667932833</v>
+        <v>0.02472161303466018</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>69</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1710266088.282731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1555155028.448041</v>
+        <v>1737906967.908491</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1219270792291765</v>
+        <v>0.1580000494295672</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03990098353565239</v>
+        <v>0.0309094492931224</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>777577537.6617446</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3112596614.945453</v>
+        <v>3402911271.496489</v>
       </c>
       <c r="F50" t="n">
-        <v>0.114261149085591</v>
+        <v>0.1187038813341443</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05037953777488505</v>
+        <v>0.03236712187643571</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>70</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1556298359.266422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1508091922.917574</v>
+        <v>1373201190.99494</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165614437384006</v>
+        <v>0.1744786502950718</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03360126085506081</v>
+        <v>0.0531594927929739</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>754045963.0656337</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5121873601.562136</v>
+        <v>3338636238.125215</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1277836316620422</v>
+        <v>0.1157536429275063</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04746145457435465</v>
+        <v>0.03840729393990475</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>85</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2560936791.210006</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3776628590.832067</v>
+        <v>2845434099.027553</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1323976266413312</v>
+        <v>0.1378301402467661</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02202764630704628</v>
+        <v>0.02403425446073088</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>59</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1888314274.240352</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3383903179.008645</v>
+        <v>4737521172.212769</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1266944773582696</v>
+        <v>0.1287876348696299</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05017846000020429</v>
+        <v>0.03864419409924198</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>68</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1691951605.190089</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4636929136.202872</v>
+        <v>3668258016.506077</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1970342821920632</v>
+        <v>0.207764597277036</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03019334599904648</v>
+        <v>0.02124521083187141</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>58</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2318464571.124246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1786166130.040127</v>
+        <v>1776301788.311209</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1247724735232142</v>
+        <v>0.1364746437260355</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05750631834757702</v>
+        <v>0.05684393514239629</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>893083064.8305256</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4557952401.438522</v>
+        <v>3728267634.826836</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1527098820213596</v>
+        <v>0.1407932513204707</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02613828756165062</v>
+        <v>0.02767359726063166</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>66</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2278976335.924979</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1153242063.611632</v>
+        <v>1282962200.42679</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1635040611366531</v>
+        <v>0.1967110666385206</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0272213310783424</v>
+        <v>0.02744406184560497</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>576621094.5530686</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4729771931.501494</v>
+        <v>4567032172.25307</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08017087959131416</v>
+        <v>0.1300705359748223</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03239392844359016</v>
+        <v>0.04938763059451283</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2364885906.478933</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3197208906.003892</v>
+        <v>2995114759.856142</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1346016322125903</v>
+        <v>0.1880073212217132</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03206001338649368</v>
+        <v>0.02803573066559564</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>63</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1598604544.016058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2797691393.971838</v>
+        <v>3171564152.060741</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1119873789044239</v>
+        <v>0.1632589873631923</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02071731306180137</v>
+        <v>0.02571387846912472</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1398845696.51135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1668414357.940794</v>
+        <v>1330743846.847386</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1493279219962559</v>
+        <v>0.1557546919074144</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04241411051069038</v>
+        <v>0.04471092690473228</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>834207187.2879072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4521919844.218048</v>
+        <v>4010004690.414834</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09311225778328494</v>
+        <v>0.072996832767783</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03980369817530883</v>
+        <v>0.04684237546587134</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>58</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2260959961.173388</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3489068006.033534</v>
+        <v>3464939222.351665</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1651333901804165</v>
+        <v>0.166154441055663</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02678811659539766</v>
+        <v>0.03291112290143428</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>64</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1744534002.922084</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3902501602.661286</v>
+        <v>5274083142.732706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1659676578646352</v>
+        <v>0.1670346770065211</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02823636346755418</v>
+        <v>0.02555503961758358</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>73</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1951250825.706799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5734818253.195255</v>
+        <v>4227489058.797166</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1291759255567744</v>
+        <v>0.1454692328738082</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05037314700487019</v>
+        <v>0.03325716487917671</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>60</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2867409193.087169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3202123454.646268</v>
+        <v>2332160295.739585</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06676691641871621</v>
+        <v>0.08739473858513191</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04146511646556024</v>
+        <v>0.04339278063670655</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>66</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1601061728.491804</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3756670646.208378</v>
+        <v>3908145087.253757</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1441080220143906</v>
+        <v>0.1419764381124391</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03724973428521651</v>
+        <v>0.04267302106550018</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1878335304.124421</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2201378400.672084</v>
+        <v>2066218130.097634</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1535783078129713</v>
+        <v>0.130343348968833</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05490967691420966</v>
+        <v>0.04823004468796318</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1100689231.340303</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3129129849.913617</v>
+        <v>3553528074.534466</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08570558122399416</v>
+        <v>0.07683577798286535</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04128537726791076</v>
+        <v>0.03717846525234755</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>58</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1564564910.399706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3422750876.591105</v>
+        <v>5631162779.121134</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1840105672656901</v>
+        <v>0.158684559371956</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02974091027584412</v>
+        <v>0.02675837610321753</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>75</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1711375426.214126</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1727170675.615338</v>
+        <v>1775455912.339223</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06601766694583169</v>
+        <v>0.07101096207487476</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04410383575273098</v>
+        <v>0.03958557186201059</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>863585328.1480745</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2739046854.19966</v>
+        <v>2170075262.155734</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09940576281319645</v>
+        <v>0.0974675590861793</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04024835636712357</v>
+        <v>0.05152156386164939</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>78</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1369523446.968959</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3975706539.425547</v>
+        <v>3792941532.382425</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1745649115231417</v>
+        <v>0.1205567431113466</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02285349618196094</v>
+        <v>0.02768694624609074</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>70</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1987853250.76255</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1968254003.147876</v>
+        <v>2083429666.463746</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1146506472637475</v>
+        <v>0.1564630314564802</v>
       </c>
       <c r="G75" t="n">
-        <v>0.034036536497138</v>
+        <v>0.02352067660328728</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>984126968.7734135</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5020852972.875178</v>
+        <v>4210746995.001595</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1226571605890602</v>
+        <v>0.1135272665465702</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02205772131974605</v>
+        <v>0.02890401288546551</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2510426513.941611</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1655324315.878556</v>
+        <v>1665099420.292907</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1406590557510514</v>
+        <v>0.1267663923563216</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02722295987994368</v>
+        <v>0.02032060014843967</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>827662168.5099577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3950869519.326379</v>
+        <v>3113094869.049819</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1292392177047182</v>
+        <v>0.08572481361965742</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05143294058446762</v>
+        <v>0.04852082269652578</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>71</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1975434728.899676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1447962712.850136</v>
+        <v>1478680422.523958</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1620172107256515</v>
+        <v>0.1269510128934731</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02751912098109016</v>
+        <v>0.03781159921576837</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>723981381.5326053</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4105034582.533659</v>
+        <v>4638053362.96629</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1069174398089781</v>
+        <v>0.1027364783750941</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03367618386397416</v>
+        <v>0.03524473430725327</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>43</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2052517295.94208</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4876109070.279954</v>
+        <v>3521399167.355011</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1074721689066424</v>
+        <v>0.1099412375804306</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03295387872490236</v>
+        <v>0.0229210174428812</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2438054530.858075</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4236380328.998887</v>
+        <v>3852281332.531702</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1776465725375846</v>
+        <v>0.1993185641762426</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0251422189692687</v>
+        <v>0.02510538001098373</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2118190191.055849</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1516005663.607794</v>
+        <v>2399247817.471569</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09967882087428276</v>
+        <v>0.1237233225937446</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03785380362607365</v>
+        <v>0.03703570844127461</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>758002756.8727133</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1886537736.421163</v>
+        <v>2198668268.504025</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09119250856348132</v>
+        <v>0.1044760335579589</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04285460076327255</v>
+        <v>0.03878769647988245</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>943268889.7932091</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3163314047.179136</v>
+        <v>3310602551.076485</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1574527653415701</v>
+        <v>0.1639574585963789</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04014036558653788</v>
+        <v>0.04220160718502572</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>77</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1581657101.770953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2425747529.505634</v>
+        <v>2775081974.340917</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1508120906657665</v>
+        <v>0.1609959329495248</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02623687996425973</v>
+        <v>0.01830224647186862</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1212873851.577734</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1228993787.153906</v>
+        <v>1242631844.041985</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1517284321429546</v>
+        <v>0.1662731514376298</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04088417312095859</v>
+        <v>0.04086490699943349</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>614496956.5709839</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2384538315.266482</v>
+        <v>3105442673.843729</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1081072856373448</v>
+        <v>0.1458732471695775</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03853409475573507</v>
+        <v>0.03942822686865032</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>81</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1192269127.232242</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2668137723.679811</v>
+        <v>2732372370.829822</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09743085784471912</v>
+        <v>0.1199999254933168</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03642994259042694</v>
+        <v>0.03547137788540265</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>70</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1334068924.246809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1881728067.861489</v>
+        <v>2078370664.919495</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1243125616798764</v>
+        <v>0.1148183369335278</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04905117731413489</v>
+        <v>0.03456693250294388</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>940864082.5110226</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1628342847.044749</v>
+        <v>1401306905.426313</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1791322164713282</v>
+        <v>0.1229294893253782</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04768581780044835</v>
+        <v>0.05388383579050175</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>814171445.3130037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2865986931.631098</v>
+        <v>2085854277.719891</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09183402611983567</v>
+        <v>0.07217626413221849</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03806633476409881</v>
+        <v>0.03772651022757451</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>50</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1432993477.40198</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4721711975.822842</v>
+        <v>4237358361.811744</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1190234941782845</v>
+        <v>0.1227007287678717</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05259843097985522</v>
+        <v>0.05097840257739151</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2360855941.848471</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2167648325.770329</v>
+        <v>1744576901.075503</v>
       </c>
       <c r="F94" t="n">
-        <v>0.154869692832335</v>
+        <v>0.1242864724296824</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03279803940812198</v>
+        <v>0.03882243504902128</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1083824183.01497</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2985279487.428905</v>
+        <v>3135660525.801332</v>
       </c>
       <c r="F95" t="n">
-        <v>0.127640803391754</v>
+        <v>0.1144185693602599</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05279145432253925</v>
+        <v>0.04111983648984691</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>49</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1492639744.495158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1903518953.169921</v>
+        <v>1857477248.816985</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1408158370145967</v>
+        <v>0.08593308427815896</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04137860210237226</v>
+        <v>0.03056738609595189</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>951759473.8379678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4356044491.945561</v>
+        <v>4216966574.341781</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1695585957386312</v>
+        <v>0.1087001270483193</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02550111136628469</v>
+        <v>0.01827973075331747</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2178022330.962363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3845947569.2912</v>
+        <v>2819618707.474775</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1233395092520267</v>
+        <v>0.1141916226705013</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02614810527682864</v>
+        <v>0.02529683358099521</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>54</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1922973826.687905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2862640077.917126</v>
+        <v>2605849299.855839</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1117619586364232</v>
+        <v>0.1125260063612269</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03042845207993106</v>
+        <v>0.02651113146656822</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>63</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1431320014.98023</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4773650218.912505</v>
+        <v>3084142137.374096</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1760014234609752</v>
+        <v>0.1482870263247136</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01956025306915486</v>
+        <v>0.01699110441123283</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2386825241.880558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2500729588.718037</v>
+        <v>2643569698.124765</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1944567106589437</v>
+        <v>0.1748771692227561</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03973082483971611</v>
+        <v>0.05749327785145773</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>83</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1250364817.421562</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_205.xlsx
+++ b/output/fit_clients/fit_round_205.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2427001511.302107</v>
+        <v>1850409744.262778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047155063559124</v>
+        <v>0.07955832722111716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04507968292351839</v>
+        <v>0.03136073861563801</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2570501464.972333</v>
+        <v>2378865577.025028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1186913273406409</v>
+        <v>0.1703281488790344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04676216112026456</v>
+        <v>0.04731192217222886</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4061334294.62127</v>
+        <v>4027579603.551568</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1154302171676663</v>
+        <v>0.1038016336091464</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03174582861277332</v>
+        <v>0.0352150149033169</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3571627577.119697</v>
+        <v>2607646625.691568</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08479729274232178</v>
+        <v>0.08322652413484499</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04343713002422629</v>
+        <v>0.05106584325920003</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2675522729.705972</v>
+        <v>1860471445.096663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08998848611616765</v>
+        <v>0.1054603566015132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05399173349924529</v>
+        <v>0.04678111171030918</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2914166430.09217</v>
+        <v>2050720952.686605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07913209006149967</v>
+        <v>0.07590288172902949</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03113033727577344</v>
+        <v>0.03938505765186149</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3371408739.438229</v>
+        <v>2772700315.461178</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2025648775816038</v>
+        <v>0.198141369514641</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02342646658371015</v>
+        <v>0.02395678251158642</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2175838210.500872</v>
+        <v>1620547230.849152</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1713658157655059</v>
+        <v>0.158807718723158</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03007595087238219</v>
+        <v>0.03513506331567366</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5006399530.354886</v>
+        <v>4552398870.257855</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1348090904014033</v>
+        <v>0.1376930123073903</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03381034711514997</v>
+        <v>0.0461613635864849</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3264781356.088476</v>
+        <v>3432262567.43247</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1606141312408872</v>
+        <v>0.1386261882643496</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04645247812896746</v>
+        <v>0.04329253529961938</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2596570024.919414</v>
+        <v>3033694568.839412</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1265694607973972</v>
+        <v>0.1859095513749273</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04885141323507178</v>
+        <v>0.05396252639029001</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4051387132.324633</v>
+        <v>4795206394.695417</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1000853447002671</v>
+        <v>0.07407550660163902</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03049896867196573</v>
+        <v>0.02218088450957434</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2899291108.823526</v>
+        <v>3673983066.733596</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1814744361799255</v>
+        <v>0.1362059557788123</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03417223552554515</v>
+        <v>0.04237067706825921</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1273611247.461997</v>
+        <v>1346219552.856299</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07781375449756331</v>
+        <v>0.08996252941887756</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04364469232731558</v>
+        <v>0.04146845791338692</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1887142122.904894</v>
+        <v>1804290173.574684</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0772066303768332</v>
+        <v>0.1145470570982676</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04800653355828672</v>
+        <v>0.04401416758811428</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4734114157.142219</v>
+        <v>3977734895.993614</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1537777579408464</v>
+        <v>0.1142106469296379</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04194330978632941</v>
+        <v>0.03903964761307304</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3987196165.312262</v>
+        <v>3912790129.043857</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1367199901945291</v>
+        <v>0.1600704629594903</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03431320929992947</v>
+        <v>0.03229663844817033</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1062090459.68485</v>
+        <v>998041229.2725372</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1769970344696448</v>
+        <v>0.1453568266162406</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0254906050249555</v>
+        <v>0.0183583237164365</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1698649469.183955</v>
+        <v>2441348367.838883</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1097441764862019</v>
+        <v>0.1399216510648369</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02732271994897946</v>
+        <v>0.02009946785445722</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2691104964.925201</v>
+        <v>2429430458.640901</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08767510565816007</v>
+        <v>0.08635482179598246</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03807262834479872</v>
+        <v>0.03624180280627987</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4040664752.510712</v>
+        <v>3076455820.866333</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09912686337665537</v>
+        <v>0.1276366399126875</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04364776908286577</v>
+        <v>0.04653018471000959</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1179904072.745391</v>
+        <v>1087786935.216848</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1707928240980371</v>
+        <v>0.1646291216295897</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04453495289154011</v>
+        <v>0.03898278221492697</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2586321937.306867</v>
+        <v>3232897554.183803</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1242171589864633</v>
+        <v>0.1189075412437878</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0301475091459965</v>
+        <v>0.03167011628553317</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>987865162.3243035</v>
+        <v>1292755658.376169</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1049084823556379</v>
+        <v>0.1060995032711946</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02161072370114292</v>
+        <v>0.02225495249943815</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1033914200.017551</v>
+        <v>899555464.8187726</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1191808473230689</v>
+        <v>0.08751131574563273</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03014375879253843</v>
+        <v>0.02421654120132416</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4647868563.885972</v>
+        <v>3853650694.212315</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1313587996477611</v>
+        <v>0.1004824103404981</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01707165129646724</v>
+        <v>0.02209604111433849</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2769616885.085783</v>
+        <v>3482271394.222543</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1166688464821722</v>
+        <v>0.1205402062328374</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04294008073782576</v>
+        <v>0.04977648161975754</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4647520116.93818</v>
+        <v>4106257589.854122</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1000896117254224</v>
+        <v>0.0956730501947705</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03108667101485957</v>
+        <v>0.0334088122557004</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1746713148.851234</v>
+        <v>2076405192.06203</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1114252075905907</v>
+        <v>0.08782997890482322</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03694736269474285</v>
+        <v>0.02477204171888949</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1438810937.720474</v>
+        <v>1357711259.824968</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08819338344184235</v>
+        <v>0.1016779003729992</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05269137528148578</v>
+        <v>0.03595881992323559</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1753526649.888662</v>
+        <v>1428943147.190947</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1154109397381885</v>
+        <v>0.0730979217756141</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02914353916914338</v>
+        <v>0.03837599599300073</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2295533941.379824</v>
+        <v>2770422304.270189</v>
       </c>
       <c r="F33" t="n">
-        <v>0.159632291990825</v>
+        <v>0.1395813611451468</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05044727077355485</v>
+        <v>0.04376700698892311</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1485151227.464082</v>
+        <v>1233810316.275898</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1102906406467285</v>
+        <v>0.09056547667496251</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02472219948660016</v>
+        <v>0.02743060758849235</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1268810238.308611</v>
+        <v>1287248355.377439</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09200482938844885</v>
+        <v>0.09662986226053484</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02803497889617372</v>
+        <v>0.02838711103726458</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2120075733.89534</v>
+        <v>2097866476.496901</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1097144961728546</v>
+        <v>0.1653790325171143</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01933117883899952</v>
+        <v>0.02379432921398538</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2639072475.301619</v>
+        <v>2612174149.411836</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09292246944580361</v>
+        <v>0.068363076056387</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03576473518919473</v>
+        <v>0.03253820841441477</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1941611070.791994</v>
+        <v>1380957817.811985</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1025247813759162</v>
+        <v>0.113853753646347</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03160089073255396</v>
+        <v>0.02782123927759306</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2068229311.660933</v>
+        <v>1417494307.319926</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1463207711302809</v>
+        <v>0.1457692681006898</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02802727393308934</v>
+        <v>0.0327373134853226</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1782428420.360077</v>
+        <v>1458671818.293423</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1140941545907318</v>
+        <v>0.140304443479755</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05356675187407692</v>
+        <v>0.03637023890307518</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2898542822.556662</v>
+        <v>2222528885.136065</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1182025010228886</v>
+        <v>0.1159407637671141</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0372355042092476</v>
+        <v>0.03993845584939358</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3729840356.400609</v>
+        <v>3843086143.561721</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1116240183233494</v>
+        <v>0.126181960393885</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04053506004165074</v>
+        <v>0.04179980968275029</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2782463763.157306</v>
+        <v>2967681267.922473</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1685504409602069</v>
+        <v>0.1501141048556232</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02111048625644583</v>
+        <v>0.0158322613438437</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1543930530.765752</v>
+        <v>1775682646.079441</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07142101614271669</v>
+        <v>0.08246707335594469</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03444702129635024</v>
+        <v>0.02280063077922959</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2540974273.579684</v>
+        <v>1996051065.706256</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1692065625090284</v>
+        <v>0.1307849749485673</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0527530285005884</v>
+        <v>0.04128772101555902</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4494002143.279209</v>
+        <v>5162055229.1149</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1660544449303078</v>
+        <v>0.154741715001874</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03867525819287391</v>
+        <v>0.04970803640709233</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4731431993.775271</v>
+        <v>3403722805.769826</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1356642617135234</v>
+        <v>0.1972480688327131</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05406302137240175</v>
+        <v>0.03694986353777227</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3943473036.928854</v>
+        <v>4345124267.94649</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07707477542624612</v>
+        <v>0.1089971753287913</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02472161303466018</v>
+        <v>0.02408076798908012</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1737906967.908491</v>
+        <v>1461269873.906171</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1580000494295672</v>
+        <v>0.1614850848876807</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0309094492931224</v>
+        <v>0.03735632078861384</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3402911271.496489</v>
+        <v>2616897438.750591</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1187038813341443</v>
+        <v>0.1584303407248812</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03236712187643571</v>
+        <v>0.03928727556424681</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1373201190.99494</v>
+        <v>1384630247.793111</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1744786502950718</v>
+        <v>0.1377851558001412</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0531594927929739</v>
+        <v>0.04215318145954355</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3338636238.125215</v>
+        <v>4524875773.903401</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1157536429275063</v>
+        <v>0.08813627096814368</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03840729393990475</v>
+        <v>0.05990781119272838</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2845434099.027553</v>
+        <v>2412215017.476988</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1378301402467661</v>
+        <v>0.1386885870928026</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02403425446073088</v>
+        <v>0.03242792556467593</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4737521172.212769</v>
+        <v>4597410286.093419</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1287876348696299</v>
+        <v>0.1077700241453382</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03864419409924198</v>
+        <v>0.04260482844106412</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3668258016.506077</v>
+        <v>3883240843.385444</v>
       </c>
       <c r="F55" t="n">
-        <v>0.207764597277036</v>
+        <v>0.1439699507390803</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02124521083187141</v>
+        <v>0.02159629942458455</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1776301788.311209</v>
+        <v>1801211132.168091</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1364746437260355</v>
+        <v>0.1586369522249172</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05684393514239629</v>
+        <v>0.05421896347859288</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3728267634.826836</v>
+        <v>3229748337.238625</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1407932513204707</v>
+        <v>0.1356977175678452</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02767359726063166</v>
+        <v>0.01907840817166721</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1282962200.42679</v>
+        <v>1809799550.126711</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1967110666385206</v>
+        <v>0.1597587450774423</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02744406184560497</v>
+        <v>0.0247990359062556</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4567032172.25307</v>
+        <v>4455727306.19451</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1300705359748223</v>
+        <v>0.09222882588473655</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04938763059451283</v>
+        <v>0.03679955264434164</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2995114759.856142</v>
+        <v>3232990014.084721</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1880073212217132</v>
+        <v>0.1869766074334558</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02803573066559564</v>
+        <v>0.03156601365048699</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3171564152.060741</v>
+        <v>2473958183.116858</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1632589873631923</v>
+        <v>0.1695471693766481</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02571387846912472</v>
+        <v>0.02082442925758833</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1330743846.847386</v>
+        <v>1569797335.410141</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1557546919074144</v>
+        <v>0.1257233889157519</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04471092690473228</v>
+        <v>0.04785162517384824</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4010004690.414834</v>
+        <v>5512132338.311097</v>
       </c>
       <c r="F63" t="n">
-        <v>0.072996832767783</v>
+        <v>0.08270895946322955</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04684237546587134</v>
+        <v>0.04631482641333241</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3464939222.351665</v>
+        <v>3702803849.789116</v>
       </c>
       <c r="F64" t="n">
-        <v>0.166154441055663</v>
+        <v>0.1734372421064865</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03291112290143428</v>
+        <v>0.02232227716590725</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5274083142.732706</v>
+        <v>4058572787.510345</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1670346770065211</v>
+        <v>0.1517674086037344</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02555503961758358</v>
+        <v>0.02314106406521871</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4227489058.797166</v>
+        <v>4982797219.299044</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1454692328738082</v>
+        <v>0.1115662925564228</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03325716487917671</v>
+        <v>0.04887941389622693</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2332160295.739585</v>
+        <v>3170316337.006625</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08739473858513191</v>
+        <v>0.08785866369376022</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04339278063670655</v>
+        <v>0.04777153444706449</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3908145087.253757</v>
+        <v>3824181104.308915</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1419764381124391</v>
+        <v>0.1143682177159182</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04267302106550018</v>
+        <v>0.0461830598675797</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2066218130.097634</v>
+        <v>2118223677.682178</v>
       </c>
       <c r="F69" t="n">
-        <v>0.130343348968833</v>
+        <v>0.1462024519355318</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04823004468796318</v>
+        <v>0.05061017189560112</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3553528074.534466</v>
+        <v>3105338675.500727</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07683577798286535</v>
+        <v>0.09861571946840436</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03717846525234755</v>
+        <v>0.04383033099935461</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5631162779.121134</v>
+        <v>4616892749.346717</v>
       </c>
       <c r="F71" t="n">
-        <v>0.158684559371956</v>
+        <v>0.1212718759944769</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02675837610321753</v>
+        <v>0.02855161683587073</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1775455912.339223</v>
+        <v>1454894043.659038</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07101096207487476</v>
+        <v>0.09831756952735056</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03958557186201059</v>
+        <v>0.04297655931171925</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2170075262.155734</v>
+        <v>3276021880.604025</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0974675590861793</v>
+        <v>0.1108064112294651</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05152156386164939</v>
+        <v>0.0473074787834414</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3792941532.382425</v>
+        <v>2601840957.535779</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1205567431113466</v>
+        <v>0.1544936060920785</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02768694624609074</v>
+        <v>0.02186711245307074</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2083429666.463746</v>
+        <v>2222862797.210184</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1564630314564802</v>
+        <v>0.1082909325067207</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02352067660328728</v>
+        <v>0.02616993109455757</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4210746995.001595</v>
+        <v>4923444995.426891</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1135272665465702</v>
+        <v>0.08509011360043392</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02890401288546551</v>
+        <v>0.02136265439105381</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1665099420.292907</v>
+        <v>1986150322.470596</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1267663923563216</v>
+        <v>0.1742417444710383</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02032060014843967</v>
+        <v>0.02456454020339588</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3113094869.049819</v>
+        <v>4453500615.290466</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08572481361965742</v>
+        <v>0.09132824264327685</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04852082269652578</v>
+        <v>0.0427730818117304</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1478680422.523958</v>
+        <v>1419041635.434241</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1269510128934731</v>
+        <v>0.1300538406866503</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03781159921576837</v>
+        <v>0.02624174908938827</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4638053362.96629</v>
+        <v>4475719324.279097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1027364783750941</v>
+        <v>0.08674509844067986</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03524473430725327</v>
+        <v>0.02358965513218545</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3521399167.355011</v>
+        <v>4879189139.747051</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1099412375804306</v>
+        <v>0.114661875240407</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0229210174428812</v>
+        <v>0.02577882321761855</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3852281332.531702</v>
+        <v>4306674877.92187</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1993185641762426</v>
+        <v>0.1485248844019007</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02510538001098373</v>
+        <v>0.0199387050113833</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2399247817.471569</v>
+        <v>2361523217.418329</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1237233225937446</v>
+        <v>0.1350226644232991</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03703570844127461</v>
+        <v>0.03743442857501014</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2198668268.504025</v>
+        <v>1762076526.828397</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1044760335579589</v>
+        <v>0.1059937167350216</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03878769647988245</v>
+        <v>0.04213226144377028</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3310602551.076485</v>
+        <v>3588428276.137374</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1639574585963789</v>
+        <v>0.1541455792771485</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04220160718502572</v>
+        <v>0.04276368311504324</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2775081974.340917</v>
+        <v>1956070363.883266</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1609959329495248</v>
+        <v>0.1235516525946388</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01830224647186862</v>
+        <v>0.02229797762482122</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1242631844.041985</v>
+        <v>978172111.345192</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1662731514376298</v>
+        <v>0.1266670701293868</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04086490699943349</v>
+        <v>0.043271052353563</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3105442673.843729</v>
+        <v>3392605287.930356</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1458732471695775</v>
+        <v>0.1152057888400459</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03942822686865032</v>
+        <v>0.03706059821655407</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2732372370.829822</v>
+        <v>3228196220.471035</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1199999254933168</v>
+        <v>0.1377433982932355</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03547137788540265</v>
+        <v>0.04051120501886125</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2078370664.919495</v>
+        <v>2013619053.169414</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1148183369335278</v>
+        <v>0.1246912440244354</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03456693250294388</v>
+        <v>0.03983245303480046</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1401306905.426313</v>
+        <v>1515952858.686237</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1229294893253782</v>
+        <v>0.1677352323899589</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05388383579050175</v>
+        <v>0.0396932951162412</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2085854277.719891</v>
+        <v>2038973342.441199</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07217626413221849</v>
+        <v>0.09165371607931598</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03772651022757451</v>
+        <v>0.03602436531121316</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4237358361.811744</v>
+        <v>4610741927.259347</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1227007287678717</v>
+        <v>0.1259191975450233</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05097840257739151</v>
+        <v>0.04721574254909381</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1744576901.075503</v>
+        <v>2065053287.875853</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1242864724296824</v>
+        <v>0.1548119162528317</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03882243504902128</v>
+        <v>0.04146949015634709</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3135660525.801332</v>
+        <v>1988591523.433496</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1144185693602599</v>
+        <v>0.101264356590792</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04111983648984691</v>
+        <v>0.04665682893093477</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1857477248.816985</v>
+        <v>2242857371.671431</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08593308427815896</v>
+        <v>0.1100070945186873</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03056738609595189</v>
+        <v>0.03273647243676308</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4216966574.341781</v>
+        <v>3758399586.26156</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1087001270483193</v>
+        <v>0.1746272003880067</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01827973075331747</v>
+        <v>0.01792727005225445</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2819618707.474775</v>
+        <v>3710864385.153016</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1141916226705013</v>
+        <v>0.1169367021230803</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02529683358099521</v>
+        <v>0.02881874222606669</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2605849299.855839</v>
+        <v>2938068202.222084</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1125260063612269</v>
+        <v>0.1408361864961039</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02651113146656822</v>
+        <v>0.03025227950452575</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3084142137.374096</v>
+        <v>2939703038.163716</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1482870263247136</v>
+        <v>0.1700145900644003</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01699110441123283</v>
+        <v>0.02578925907825705</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2643569698.124765</v>
+        <v>3216358453.97589</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1748771692227561</v>
+        <v>0.2104839041019791</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05749327785145773</v>
+        <v>0.04885537069775406</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_205.xlsx
+++ b/output/fit_clients/fit_round_205.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1850409744.262778</v>
+        <v>1579122430.741276</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07955832722111716</v>
+        <v>0.07334480973836149</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03136073861563801</v>
+        <v>0.03342619356353427</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2378865577.025028</v>
+        <v>2644783886.678884</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703281488790344</v>
+        <v>0.1208315164400368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04731192217222886</v>
+        <v>0.03607542896175742</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4027579603.551568</v>
+        <v>3259425861.434274</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1038016336091464</v>
+        <v>0.1365582964437918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0352150149033169</v>
+        <v>0.02329227870142586</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>112</v>
+      </c>
+      <c r="J4" t="n">
+        <v>205</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2607646625.691568</v>
+        <v>2858508269.697742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08322652413484499</v>
+        <v>0.1024959993755349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05106584325920003</v>
+        <v>0.04101506660506143</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>203</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1860471445.096663</v>
+        <v>2659641086.019287</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1054603566015132</v>
+        <v>0.1205557123973336</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04678111171030918</v>
+        <v>0.03739531319800397</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2050720952.686605</v>
+        <v>2836677824.080851</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07590288172902949</v>
+        <v>0.0760505496993274</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03938505765186149</v>
+        <v>0.03167175456505443</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2772700315.461178</v>
+        <v>2989268221.143013</v>
       </c>
       <c r="F8" t="n">
-        <v>0.198141369514641</v>
+        <v>0.2210319253225014</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02395678251158642</v>
+        <v>0.02131555265669719</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>199</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1620547230.849152</v>
+        <v>2258853737.646902</v>
       </c>
       <c r="F9" t="n">
-        <v>0.158807718723158</v>
+        <v>0.1805865507605161</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03513506331567366</v>
+        <v>0.03559722806766802</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4552398870.257855</v>
+        <v>5598031392.283501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1376930123073903</v>
+        <v>0.2031277529906098</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0461613635864849</v>
+        <v>0.04212906042168476</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>187</v>
+      </c>
+      <c r="J10" t="n">
+        <v>205</v>
+      </c>
+      <c r="K10" t="n">
+        <v>128.9004557979304</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3432262567.43247</v>
+        <v>4159779820.503001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1386261882643496</v>
+        <v>0.1181592125135203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04329253529961938</v>
+        <v>0.04352040395510477</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>84</v>
+      </c>
+      <c r="J11" t="n">
+        <v>205</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3033694568.839412</v>
+        <v>2025847892.934819</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1859095513749273</v>
+        <v>0.1897589469421855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05396252639029001</v>
+        <v>0.03837493760382332</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4795206394.695417</v>
+        <v>3916235309.916335</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07407550660163902</v>
+        <v>0.09794352382996829</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02218088450957434</v>
+        <v>0.01893408891281887</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>102</v>
+      </c>
+      <c r="J13" t="n">
+        <v>204</v>
+      </c>
+      <c r="K13" t="n">
+        <v>117.8490764681341</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3673983066.733596</v>
+        <v>3811623325.585271</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1362059557788123</v>
+        <v>0.1432738850892961</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04237067706825921</v>
+        <v>0.04271444893421202</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>39</v>
+      </c>
+      <c r="J14" t="n">
+        <v>205</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1346219552.856299</v>
+        <v>1153031588.940863</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08996252941887756</v>
+        <v>0.1040335299537343</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04146845791338692</v>
+        <v>0.04540752646721057</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1804290173.574684</v>
+        <v>2313666878.714611</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1145470570982676</v>
+        <v>0.07896223938310611</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04401416758811428</v>
+        <v>0.03731124794437453</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3977734895.993614</v>
+        <v>5052304886.228645</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1142106469296379</v>
+        <v>0.1214303411193118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03903964761307304</v>
+        <v>0.04935682928155613</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>98</v>
+      </c>
+      <c r="J17" t="n">
+        <v>205</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3912790129.043857</v>
+        <v>3043960564.547711</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1600704629594903</v>
+        <v>0.1207500621865195</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03229663844817033</v>
+        <v>0.0307956806093261</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>201</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>998041229.2725372</v>
+        <v>1071082148.405302</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1453568266162406</v>
+        <v>0.1829650052182508</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0183583237164365</v>
+        <v>0.02178197703468081</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2441348367.838883</v>
+        <v>2207265359.319373</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1399216510648369</v>
+        <v>0.1384193114206722</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02009946785445722</v>
+        <v>0.02663755072101832</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2429430458.640901</v>
+        <v>2548832092.768199</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08635482179598246</v>
+        <v>0.08753241488059743</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03624180280627987</v>
+        <v>0.0366633546798083</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3076455820.866333</v>
+        <v>4041749908.410719</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1276366399126875</v>
+        <v>0.1406977670437009</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04653018471000959</v>
+        <v>0.05001636253699003</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>52</v>
+      </c>
+      <c r="J22" t="n">
+        <v>205</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1087786935.216848</v>
+        <v>1296748632.551383</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1646291216295897</v>
+        <v>0.1639594111611942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03898278221492697</v>
+        <v>0.04212043882917098</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3232897554.183803</v>
+        <v>2595373837.458449</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1189075412437878</v>
+        <v>0.1207029266327071</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03167011628553317</v>
+        <v>0.03554738355637391</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>203</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1292755658.376169</v>
+        <v>1177831360.485898</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1060995032711946</v>
+        <v>0.08528539947847685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02225495249943815</v>
+        <v>0.02413152633850152</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>899555464.8187726</v>
+        <v>1291932517.950851</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08751131574563273</v>
+        <v>0.1154340859784219</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02421654120132416</v>
+        <v>0.03619197733788799</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3853650694.212315</v>
+        <v>3864013155.930695</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1004824103404981</v>
+        <v>0.1257909696452746</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02209604111433849</v>
+        <v>0.01794571337823635</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>81</v>
+      </c>
+      <c r="J27" t="n">
+        <v>204</v>
+      </c>
+      <c r="K27" t="n">
+        <v>98.13321780630881</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3482271394.222543</v>
+        <v>2376302254.139132</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1205402062328374</v>
+        <v>0.1482307810191051</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04977648161975754</v>
+        <v>0.03179180632547019</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4106257589.854122</v>
+        <v>5874976586.624165</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0956730501947705</v>
+        <v>0.1254001806697682</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0334088122557004</v>
+        <v>0.03542937228825008</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>194</v>
+      </c>
+      <c r="J29" t="n">
+        <v>205</v>
+      </c>
+      <c r="K29" t="n">
+        <v>133.9440209696013</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2076405192.06203</v>
+        <v>1694746686.413123</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08782997890482322</v>
+        <v>0.136974509174662</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02477204171888949</v>
+        <v>0.03650384049636828</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1357711259.824968</v>
+        <v>1447283818.06552</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1016779003729992</v>
+        <v>0.1059710447078381</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03595881992323559</v>
+        <v>0.04152024054535963</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1428943147.190947</v>
+        <v>1576120701.124801</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0730979217756141</v>
+        <v>0.09681848673549499</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03837599599300073</v>
+        <v>0.03826379018923937</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2770422304.270189</v>
+        <v>2875271068.779753</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1395813611451468</v>
+        <v>0.1903625815660281</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04376700698892311</v>
+        <v>0.04594048187172105</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1233810316.275898</v>
+        <v>1501757404.343394</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09056547667496251</v>
+        <v>0.0985100083597866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02743060758849235</v>
+        <v>0.02661440065734465</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1287248355.377439</v>
+        <v>1129264705.411475</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09662986226053484</v>
+        <v>0.1092776083609318</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02838711103726458</v>
+        <v>0.04043822189161172</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2097866476.496901</v>
+        <v>3049571987.265356</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1653790325171143</v>
+        <v>0.1200552030064565</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02379432921398538</v>
+        <v>0.02846955956455746</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2612174149.411836</v>
+        <v>2248230548.050159</v>
       </c>
       <c r="F37" t="n">
-        <v>0.068363076056387</v>
+        <v>0.08750268583100482</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03253820841441477</v>
+        <v>0.02624146750994569</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1380957817.811985</v>
+        <v>2137698105.942704</v>
       </c>
       <c r="F38" t="n">
-        <v>0.113853753646347</v>
+        <v>0.1005896519737129</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02782123927759306</v>
+        <v>0.03641096849478235</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1417494307.319926</v>
+        <v>1787501973.795178</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1457692681006898</v>
+        <v>0.1538321264291642</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0327373134853226</v>
+        <v>0.03023871843214488</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1458671818.293423</v>
+        <v>1688631034.85066</v>
       </c>
       <c r="F40" t="n">
-        <v>0.140304443479755</v>
+        <v>0.1230913205376056</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03637023890307518</v>
+        <v>0.05761819496647889</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2222528885.136065</v>
+        <v>1852780342.229973</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1159407637671141</v>
+        <v>0.1171653694709089</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03993845584939358</v>
+        <v>0.0377361556389198</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3843086143.561721</v>
+        <v>2870316516.655183</v>
       </c>
       <c r="F42" t="n">
-        <v>0.126181960393885</v>
+        <v>0.09977179777654148</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04179980968275029</v>
+        <v>0.04099719539211132</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>81</v>
+      </c>
+      <c r="J42" t="n">
+        <v>202</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2967681267.922473</v>
+        <v>2723365491.366178</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1501141048556232</v>
+        <v>0.1544673821049134</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0158322613438437</v>
+        <v>0.01561127895351411</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1775682646.079441</v>
+        <v>1586356002.445192</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08246707335594469</v>
+        <v>0.0662836222528021</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02280063077922959</v>
+        <v>0.03217446621304509</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1996051065.706256</v>
+        <v>2298037459.673674</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1307849749485673</v>
+        <v>0.1251430396354674</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04128772101555902</v>
+        <v>0.05348139339241247</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2049,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5162055229.1149</v>
+        <v>5120321501.306074</v>
       </c>
       <c r="F46" t="n">
-        <v>0.154741715001874</v>
+        <v>0.1414278827762178</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04970803640709233</v>
+        <v>0.05580355176010914</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>117</v>
+      </c>
+      <c r="J46" t="n">
+        <v>205</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3403722805.769826</v>
+        <v>3600251523.099597</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1972480688327131</v>
+        <v>0.1599727390850048</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03694986353777227</v>
+        <v>0.0528582930723508</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>92</v>
+      </c>
+      <c r="J47" t="n">
+        <v>204</v>
+      </c>
+      <c r="K47" t="n">
+        <v>81.22262696292843</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4345124267.94649</v>
+        <v>4532828267.477283</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1089971753287913</v>
+        <v>0.09431856775132673</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02408076798908012</v>
+        <v>0.03525226949374503</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>100</v>
+      </c>
+      <c r="J48" t="n">
+        <v>205</v>
+      </c>
+      <c r="K48" t="n">
+        <v>123.0304808137195</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1461269873.906171</v>
+        <v>1852365928.935781</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1614850848876807</v>
+        <v>0.1614084110248306</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03735632078861384</v>
+        <v>0.0341242457293799</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2616897438.750591</v>
+        <v>3767320678.086442</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1584303407248812</v>
+        <v>0.1580425068772</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03928727556424681</v>
+        <v>0.04360180849027798</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>64</v>
+      </c>
+      <c r="J50" t="n">
+        <v>205</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1384630247.793111</v>
+        <v>1216988207.844096</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1377851558001412</v>
+        <v>0.1844308316541431</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04215318145954355</v>
+        <v>0.04771468040897376</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4524875773.903401</v>
+        <v>4840454302.029509</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08813627096814368</v>
+        <v>0.08418669479657831</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05990781119272838</v>
+        <v>0.03985401953502774</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>140</v>
+      </c>
+      <c r="J52" t="n">
+        <v>204</v>
+      </c>
+      <c r="K52" t="n">
+        <v>116.885882737399</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2300,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2412215017.476988</v>
+        <v>3809042700.816638</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1386885870928026</v>
+        <v>0.1635084263686751</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03242792556467593</v>
+        <v>0.02594403142254411</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4597410286.093419</v>
+        <v>3947946925.727847</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1077700241453382</v>
+        <v>0.1265891591665416</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04260482844106412</v>
+        <v>0.04552501925887031</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>106</v>
+      </c>
+      <c r="J54" t="n">
+        <v>205</v>
+      </c>
+      <c r="K54" t="n">
+        <v>121.0875647100875</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3883240843.385444</v>
+        <v>4576999947.220743</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1439699507390803</v>
+        <v>0.205984415667516</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02159629942458455</v>
+        <v>0.02415560805389178</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>91</v>
+      </c>
+      <c r="J55" t="n">
+        <v>205</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1801211132.168091</v>
+        <v>1728268680.088467</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1586369522249172</v>
+        <v>0.1077610331731955</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05421896347859288</v>
+        <v>0.03562426550582623</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3229748337.238625</v>
+        <v>2821571556.369364</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1356977175678452</v>
+        <v>0.1446235780624966</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01907840817166721</v>
+        <v>0.02213641721657103</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>81</v>
+      </c>
+      <c r="J57" t="n">
+        <v>202</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1809799550.126711</v>
+        <v>1752125823.183288</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1597587450774423</v>
+        <v>0.1707754396843861</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0247990359062556</v>
+        <v>0.03713633755975235</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4455727306.19451</v>
+        <v>3368797771.02777</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09222882588473655</v>
+        <v>0.1178875752711499</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03679955264434164</v>
+        <v>0.03822814278613629</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>99</v>
+      </c>
+      <c r="J59" t="n">
+        <v>204</v>
+      </c>
+      <c r="K59" t="n">
+        <v>80.84788610170789</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3232990014.084721</v>
+        <v>2836745259.66263</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1869766074334558</v>
+        <v>0.1550446685136131</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03156601365048699</v>
+        <v>0.02146220673030826</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2473958183.116858</v>
+        <v>2291947634.53396</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1695471693766481</v>
+        <v>0.1327733317684362</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02082442925758833</v>
+        <v>0.02399726891619977</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1569797335.410141</v>
+        <v>2028664113.883475</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1257233889157519</v>
+        <v>0.1712197700081562</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04785162517384824</v>
+        <v>0.03306900493193188</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5512132338.311097</v>
+        <v>4973169994.737144</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08270895946322955</v>
+        <v>0.09059085469699128</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04631482641333241</v>
+        <v>0.04509590909924342</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>100</v>
+      </c>
+      <c r="J63" t="n">
+        <v>204</v>
+      </c>
+      <c r="K63" t="n">
+        <v>111.6571647610573</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2691,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3702803849.789116</v>
+        <v>3625820910.154129</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1734372421064865</v>
+        <v>0.1618552514581856</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02232227716590725</v>
+        <v>0.02449289145002901</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>101</v>
+      </c>
+      <c r="J64" t="n">
+        <v>204</v>
+      </c>
+      <c r="K64" t="n">
+        <v>96.73452207652824</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4058572787.510345</v>
+        <v>5345030121.566734</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1517674086037344</v>
+        <v>0.1696143690801314</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02314106406521871</v>
+        <v>0.02832975549553198</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>164</v>
+      </c>
+      <c r="J65" t="n">
+        <v>205</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4982797219.299044</v>
+        <v>3739832784.586733</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1115662925564228</v>
+        <v>0.111136489241553</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04887941389622693</v>
+        <v>0.04466077205515218</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>101</v>
+      </c>
+      <c r="J66" t="n">
+        <v>204</v>
+      </c>
+      <c r="K66" t="n">
+        <v>96.69851104859254</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3170316337.006625</v>
+        <v>3141919176.103635</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08785866369376022</v>
+        <v>0.077806188409696</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04777153444706449</v>
+        <v>0.03669044620579279</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3824181104.308915</v>
+        <v>4613547786.082656</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1143682177159182</v>
+        <v>0.1410490203546146</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0461830598675797</v>
+        <v>0.0504332691191153</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>103</v>
+      </c>
+      <c r="J68" t="n">
+        <v>205</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2118223677.682178</v>
+        <v>1740109648.298556</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1462024519355318</v>
+        <v>0.113653306117029</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05061017189560112</v>
+        <v>0.05933655568842051</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3105338675.500727</v>
+        <v>2589139892.76367</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09861571946840436</v>
+        <v>0.09383172433424358</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04383033099935461</v>
+        <v>0.03277405235632462</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>31</v>
+      </c>
+      <c r="J70" t="n">
+        <v>203</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4616892749.346717</v>
+        <v>4717735816.068884</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1212718759944769</v>
+        <v>0.177356806438847</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02855161683587073</v>
+        <v>0.03030900891661574</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>157</v>
+      </c>
+      <c r="J71" t="n">
+        <v>205</v>
+      </c>
+      <c r="K71" t="n">
+        <v>120.9493132921448</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1454894043.659038</v>
+        <v>2138411797.455559</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09831756952735056</v>
+        <v>0.07769673812500213</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04297655931171925</v>
+        <v>0.0396504621045765</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3276021880.604025</v>
+        <v>2672955631.905464</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1108064112294651</v>
+        <v>0.09575486703268182</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0473074787834414</v>
+        <v>0.03925987782393199</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3047,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2601840957.535779</v>
+        <v>2760736508.718034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1544936060920785</v>
+        <v>0.1254263599914686</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02186711245307074</v>
+        <v>0.03362169571922694</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>60</v>
+      </c>
+      <c r="J74" t="n">
+        <v>204</v>
+      </c>
+      <c r="K74" t="n">
+        <v>61.78313906406071</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2222862797.210184</v>
+        <v>2211313795.251395</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1082909325067207</v>
+        <v>0.1230110293663403</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02616993109455757</v>
+        <v>0.02522633901591594</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4923444995.426891</v>
+        <v>5264346132.204179</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08509011360043392</v>
+        <v>0.08773013301822219</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02136265439105381</v>
+        <v>0.02254053556893222</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>94</v>
+      </c>
+      <c r="J76" t="n">
+        <v>204</v>
+      </c>
+      <c r="K76" t="n">
+        <v>102.6679248558678</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1986150322.470596</v>
+        <v>2228078336.129226</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1742417444710383</v>
+        <v>0.155892112028463</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02456454020339588</v>
+        <v>0.02815715721874783</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4453500615.290466</v>
+        <v>3309891185.023744</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09132824264327685</v>
+        <v>0.1341021799096377</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0427730818117304</v>
+        <v>0.03787077185535079</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>102</v>
+      </c>
+      <c r="J78" t="n">
+        <v>205</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1419041635.434241</v>
+        <v>1211820127.318281</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1300538406866503</v>
+        <v>0.1518039088201205</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02624174908938827</v>
+        <v>0.02860088340606825</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4475719324.279097</v>
+        <v>5586124876.977016</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08674509844067986</v>
+        <v>0.08737510345389812</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02358965513218545</v>
+        <v>0.03633672099242879</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>100</v>
+      </c>
+      <c r="J80" t="n">
+        <v>204</v>
+      </c>
+      <c r="K80" t="n">
+        <v>86.21649738352423</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4879189139.747051</v>
+        <v>3917082948.733974</v>
       </c>
       <c r="F81" t="n">
-        <v>0.114661875240407</v>
+        <v>0.104645083161654</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02577882321761855</v>
+        <v>0.02397672985663383</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>94</v>
+      </c>
+      <c r="J81" t="n">
+        <v>205</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4306674877.92187</v>
+        <v>3474876220.386959</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1485248844019007</v>
+        <v>0.1951777535307626</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0199387050113833</v>
+        <v>0.02492858019053197</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>152</v>
+      </c>
+      <c r="J82" t="n">
+        <v>204</v>
+      </c>
+      <c r="K82" t="n">
+        <v>98.67241470421472</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2361523217.418329</v>
+        <v>2444691841.824164</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1350226644232991</v>
+        <v>0.1228986918645244</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03743442857501014</v>
+        <v>0.04301814575705184</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1762076526.828397</v>
+        <v>2354030857.764419</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1059937167350216</v>
+        <v>0.08372963170215283</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04213226144377028</v>
+        <v>0.04616101693399001</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3588428276.137374</v>
+        <v>3646937455.682915</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1541455792771485</v>
+        <v>0.1702903991369955</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04276368311504324</v>
+        <v>0.05469034730515005</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1956070363.883266</v>
+        <v>1989656223.178453</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1235516525946388</v>
+        <v>0.1059165907886788</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02229797762482122</v>
+        <v>0.01875139876603231</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>978172111.345192</v>
+        <v>1481745386.757218</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1266670701293868</v>
+        <v>0.1754588006585233</v>
       </c>
       <c r="G87" t="n">
-        <v>0.043271052353563</v>
+        <v>0.03932107858645006</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3392605287.930356</v>
+        <v>3166564845.505231</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1152057888400459</v>
+        <v>0.1210742904307644</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03706059821655407</v>
+        <v>0.0338979586552661</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>204</v>
+      </c>
+      <c r="K88" t="n">
+        <v>81.99629496875129</v>
       </c>
     </row>
     <row r="89">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3228196220.471035</v>
+        <v>2351915319.228461</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1377433982932355</v>
+        <v>0.1076320782118917</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04051120501886125</v>
+        <v>0.02993066332076391</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2013619053.169414</v>
+        <v>1832892969.321511</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1246912440244354</v>
+        <v>0.1140933044538682</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03983245303480046</v>
+        <v>0.03417649147753284</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1515952858.686237</v>
+        <v>1426752937.878285</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1677352323899589</v>
+        <v>0.1732544929930931</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0396932951162412</v>
+        <v>0.0544592638528773</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2038973342.441199</v>
+        <v>2477442580.470775</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09165371607931598</v>
+        <v>0.07845782190501673</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03602436531121316</v>
+        <v>0.03970556310424669</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4610741927.259347</v>
+        <v>4177438015.83369</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1259191975450233</v>
+        <v>0.08647205874588969</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04721574254909381</v>
+        <v>0.04721976395637739</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>93</v>
+      </c>
+      <c r="J93" t="n">
+        <v>204</v>
+      </c>
+      <c r="K93" t="n">
+        <v>111.5177545452448</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2065053287.875853</v>
+        <v>1890859937.638364</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1548119162528317</v>
+        <v>0.158811571787588</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04146949015634709</v>
+        <v>0.02998453846973028</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1988591523.433496</v>
+        <v>2929952155.549089</v>
       </c>
       <c r="F95" t="n">
-        <v>0.101264356590792</v>
+        <v>0.08974014207649043</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04665682893093477</v>
+        <v>0.04739876846413607</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2242857371.671431</v>
+        <v>1469684759.153746</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1100070945186873</v>
+        <v>0.1347157691330378</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03273647243676308</v>
+        <v>0.03255427325812951</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3758399586.26156</v>
+        <v>3252923072.631799</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1746272003880067</v>
+        <v>0.1593337375378318</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01792727005225445</v>
+        <v>0.02693673860336201</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>98</v>
+      </c>
+      <c r="J97" t="n">
+        <v>205</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3710864385.153016</v>
+        <v>2658460636.21791</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1169367021230803</v>
+        <v>0.09867682500928758</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02881874222606669</v>
+        <v>0.02553743518401826</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>51</v>
+      </c>
+      <c r="J98" t="n">
+        <v>202</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2938068202.222084</v>
+        <v>2490371341.101676</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1408361864961039</v>
+        <v>0.13560882393254</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03025227950452575</v>
+        <v>0.0270689553048736</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2939703038.163716</v>
+        <v>3920702551.022568</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1700145900644003</v>
+        <v>0.1637685044275053</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02578925907825705</v>
+        <v>0.02467176342432301</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>85</v>
+      </c>
+      <c r="J100" t="n">
+        <v>204</v>
+      </c>
+      <c r="K100" t="n">
+        <v>114.1621218473616</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3216358453.97589</v>
+        <v>2855933458.905248</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2104839041019791</v>
+        <v>0.1346357250130821</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04885537069775406</v>
+        <v>0.05156463485198747</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
